--- a/excel/finished/8高炉/重点部位参数监控-图表.xlsx
+++ b/excel/finished/8高炉/重点部位参数监控-图表.xlsx
@@ -637,8 +637,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1226417888"/>
-        <c:axId val="-1226405920"/>
+        <c:axId val="-206491472"/>
+        <c:axId val="-206495280"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -713,11 +713,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1226409728"/>
-        <c:axId val="-1226415168"/>
+        <c:axId val="-206490384"/>
+        <c:axId val="-206489840"/>
       </c:lineChart>
-      <c:dateAx>
-        <c:axId val="-1226417888"/>
+      <c:catAx>
+        <c:axId val="-206491472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -760,14 +760,15 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1226405920"/>
+        <c:crossAx val="-206495280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="-1226405920"/>
+        <c:axId val="-206495280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -818,12 +819,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1226417888"/>
+        <c:crossAx val="-206491472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1226415168"/>
+        <c:axId val="-206489840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -860,12 +861,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1226409728"/>
+        <c:crossAx val="-206490384"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-1226409728"/>
+        <c:axId val="-206490384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -875,7 +876,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1226415168"/>
+        <c:crossAx val="-206489840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -891,17 +892,8 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.31403667091946985"/>
-          <c:y val="0.93967132644193185"/>
-          <c:w val="0.3826436538038227"/>
-          <c:h val="5.8747163571791591E-2"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1020,6 +1012,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1193,6 +1186,22 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-206495824"/>
+        <c:axId val="-206489296"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
@@ -1239,22 +1248,6 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-1226413536"/>
-        <c:axId val="-1226418432"/>
-      </c:lineChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
@@ -1311,11 +1304,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1226404832"/>
-        <c:axId val="-1226405376"/>
+        <c:axId val="-206496912"/>
+        <c:axId val="-206488752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1226413536"/>
+        <c:axId val="-206495824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1358,7 +1351,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1226418432"/>
+        <c:crossAx val="-206489296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1366,7 +1359,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1226418432"/>
+        <c:axId val="-206489296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1417,12 +1410,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1226413536"/>
+        <c:crossAx val="-206495824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1226405376"/>
+        <c:axId val="-206488752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1459,12 +1452,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1226404832"/>
+        <c:crossAx val="-206496912"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-1226404832"/>
+        <c:axId val="-206496912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1474,7 +1467,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1226405376"/>
+        <c:crossAx val="-206488752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1490,7 +1483,8 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1609,6 +1603,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1792,8 +1787,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1226420064"/>
-        <c:axId val="-1226409184"/>
+        <c:axId val="-206494736"/>
+        <c:axId val="-206496368"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1854,11 +1849,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1226408640"/>
-        <c:axId val="-1226419520"/>
+        <c:axId val="-206487664"/>
+        <c:axId val="-206499088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1226420064"/>
+        <c:axId val="-206494736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1901,7 +1896,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1226409184"/>
+        <c:crossAx val="-206496368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1909,7 +1904,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1226409184"/>
+        <c:axId val="-206496368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1960,12 +1955,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1226420064"/>
+        <c:crossAx val="-206494736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1226419520"/>
+        <c:axId val="-206499088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2002,12 +1997,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1226408640"/>
+        <c:crossAx val="-206487664"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-1226408640"/>
+        <c:axId val="-206487664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2017,7 +2012,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1226419520"/>
+        <c:crossAx val="-206499088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2033,7 +2028,8 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2163,6 +2159,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2346,8 +2343,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1226417344"/>
-        <c:axId val="-1226418976"/>
+        <c:axId val="-206487120"/>
+        <c:axId val="-206486576"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2408,11 +2405,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1226412992"/>
-        <c:axId val="-1226411360"/>
+        <c:axId val="-206490928"/>
+        <c:axId val="-206486032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1226417344"/>
+        <c:axId val="-206487120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2455,15 +2452,15 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1226418976"/>
+        <c:crossAx val="-206486576"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
+        <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1226418976"/>
+        <c:axId val="-206486576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2514,12 +2511,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1226417344"/>
+        <c:crossAx val="-206487120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1226411360"/>
+        <c:axId val="-206486032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2556,12 +2553,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1226412992"/>
+        <c:crossAx val="-206490928"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-1226412992"/>
+        <c:axId val="-206490928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2571,7 +2568,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1226411360"/>
+        <c:crossAx val="-206486032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2587,7 +2584,8 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2931,8 +2929,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1226416800"/>
-        <c:axId val="-1226408096"/>
+        <c:axId val="-206484944"/>
+        <c:axId val="-206498544"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3007,11 +3005,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1226411904"/>
-        <c:axId val="-1226407552"/>
+        <c:axId val="-206485488"/>
+        <c:axId val="-206493648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1226416800"/>
+        <c:axId val="-206484944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3054,7 +3052,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1226408096"/>
+        <c:crossAx val="-206498544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3062,7 +3060,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1226408096"/>
+        <c:axId val="-206498544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3113,12 +3111,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1226416800"/>
+        <c:crossAx val="-206484944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1226407552"/>
+        <c:axId val="-206493648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3155,12 +3153,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1226411904"/>
+        <c:crossAx val="-206485488"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-1226411904"/>
+        <c:axId val="-206485488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3170,7 +3168,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1226407552"/>
+        <c:crossAx val="-206493648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3544,8 +3542,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1226416256"/>
-        <c:axId val="-1226415712"/>
+        <c:axId val="-206493104"/>
+        <c:axId val="-206484400"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3606,11 +3604,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1222900592"/>
-        <c:axId val="-1222907664"/>
+        <c:axId val="-206492560"/>
+        <c:axId val="-206499632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1226416256"/>
+        <c:axId val="-206493104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3653,7 +3651,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1226415712"/>
+        <c:crossAx val="-206484400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3661,7 +3659,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1226415712"/>
+        <c:axId val="-206484400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3712,12 +3710,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1226416256"/>
+        <c:crossAx val="-206493104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1222907664"/>
+        <c:axId val="-206499632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3754,12 +3752,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1222900592"/>
+        <c:crossAx val="-206492560"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-1222900592"/>
+        <c:axId val="-206492560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3769,7 +3767,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1222907664"/>
+        <c:crossAx val="-206499632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4087,8 +4085,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1222903856"/>
-        <c:axId val="-1222896240"/>
+        <c:axId val="-201723776"/>
+        <c:axId val="-201709088"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4149,11 +4147,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1222903312"/>
-        <c:axId val="-1222911472"/>
+        <c:axId val="-201719968"/>
+        <c:axId val="-201709632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1222903856"/>
+        <c:axId val="-201723776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4196,7 +4194,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1222896240"/>
+        <c:crossAx val="-201709088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4204,7 +4202,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1222896240"/>
+        <c:axId val="-201709088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4255,12 +4253,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1222903856"/>
+        <c:crossAx val="-201723776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1222911472"/>
+        <c:axId val="-201709632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4297,12 +4295,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1222903312"/>
+        <c:crossAx val="-201719968"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-1222903312"/>
+        <c:axId val="-201719968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4312,7 +4310,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1222911472"/>
+        <c:crossAx val="-201709632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4641,8 +4639,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1222899504"/>
-        <c:axId val="-1222909840"/>
+        <c:axId val="-201708544"/>
+        <c:axId val="-201711264"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4703,11 +4701,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1222908208"/>
-        <c:axId val="-1222898416"/>
+        <c:axId val="-201719424"/>
+        <c:axId val="-201720512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1222899504"/>
+        <c:axId val="-201708544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4750,7 +4748,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1222909840"/>
+        <c:crossAx val="-201711264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4758,7 +4756,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1222909840"/>
+        <c:axId val="-201711264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4809,12 +4807,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1222899504"/>
+        <c:crossAx val="-201708544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1222898416"/>
+        <c:axId val="-201720512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4851,12 +4849,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1222908208"/>
+        <c:crossAx val="-201719424"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-1222908208"/>
+        <c:axId val="-201719424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4866,7 +4864,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1222898416"/>
+        <c:crossAx val="-201720512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
